--- a/S_PM Tasks/S_PM05/S_PM05.xlsx
+++ b/S_PM Tasks/S_PM05/S_PM05.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khaled\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sprints Tasks\task1\S_PM Tasks\S_PM05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C95DCF3-1D92-4883-827E-1B514E2FF22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E463689-F228-43EE-A374-94CCFFF953A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F982E7F-C057-47DE-B8B1-A36B1598F1E7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -76,13 +76,25 @@
   </si>
   <si>
     <t xml:space="preserve">Total cost of the project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumptions </t>
+  </si>
+  <si>
+    <t>Laptops Specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training content </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +131,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +153,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,11 +168,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,6 +207,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,13 +244,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08F8512C-4C25-426B-8BB4-6AEB13EA972F}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08F8512C-4C25-426B-8BB4-6AEB13EA972F}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:D12" xr:uid="{08F8512C-4C25-426B-8BB4-6AEB13EA972F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DE658225-98E3-41FC-9E9D-5FC4CDD65548}" name="Column1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B0E4CA33-C400-430F-A254-921D16743ACE}" name="Column2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2C6D43EA-749C-443C-B618-49D1BDCE072F}" name="Column3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{561DF979-0D75-4623-A4C4-A5DEAC462EE4}" name="Column4" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DE658225-98E3-41FC-9E9D-5FC4CDD65548}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B0E4CA33-C400-430F-A254-921D16743ACE}" name="Column2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2C6D43EA-749C-443C-B618-49D1BDCE072F}" name="Column3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{561DF979-0D75-4623-A4C4-A5DEAC462EE4}" name="Column4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED2AD06-4778-48AF-9C91-79CBEC43A03B}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,9 +565,10 @@
     <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -536,8 +581,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,8 +598,11 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -560,8 +611,11 @@
       <c r="D3" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -574,8 +628,11 @@
       <c r="D4" s="4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -590,7 +647,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -600,7 +657,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -614,13 +671,13 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="6" t="s">
@@ -631,43 +688,43 @@
         <v>33750</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>

--- a/S_PM Tasks/S_PM05/S_PM05.xlsx
+++ b/S_PM Tasks/S_PM05/S_PM05.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sprints Tasks\task1\S_PM Tasks\S_PM05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E463689-F228-43EE-A374-94CCFFF953A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254227AD-CE73-4D37-BCC8-34B2F9090A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F982E7F-C057-47DE-B8B1-A36B1598F1E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tool And services " sheetId="1" r:id="rId1"/>
+    <sheet name="Working Hours" sheetId="3" r:id="rId2"/>
+    <sheet name="Assumptions" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -66,9 +68,6 @@
     <t>Mobile App</t>
   </si>
   <si>
-    <t>SW</t>
-  </si>
-  <si>
     <t>Laptops</t>
   </si>
   <si>
@@ -88,13 +87,31 @@
   </si>
   <si>
     <t xml:space="preserve">Training content </t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Price </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +151,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -187,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,11 +241,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -244,13 +317,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08F8512C-4C25-426B-8BB4-6AEB13EA972F}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:D12" xr:uid="{08F8512C-4C25-426B-8BB4-6AEB13EA972F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08F8512C-4C25-426B-8BB4-6AEB13EA972F}" name="Table1" displayName="Table1" ref="A1:D9" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="A1:D9" xr:uid="{08F8512C-4C25-426B-8BB4-6AEB13EA972F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DE658225-98E3-41FC-9E9D-5FC4CDD65548}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B0E4CA33-C400-430F-A254-921D16743ACE}" name="Column2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{2C6D43EA-749C-443C-B618-49D1BDCE072F}" name="Column3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{561DF979-0D75-4623-A4C4-A5DEAC462EE4}" name="Column4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DE658225-98E3-41FC-9E9D-5FC4CDD65548}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B0E4CA33-C400-430F-A254-921D16743ACE}" name="Column2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2C6D43EA-749C-443C-B618-49D1BDCE072F}" name="Column3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{561DF979-0D75-4623-A4C4-A5DEAC462EE4}" name="Column4" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B5AACB6-370A-4B25-BCC2-3184DAA772EB}" name="Table2" displayName="Table2" ref="A1:I9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:I9" xr:uid="{2B5AACB6-370A-4B25-BCC2-3184DAA772EB}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3C2130F7-A5E9-4DDC-AF12-3C7018BF3D72}" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{02813F9F-1BC6-4142-8704-162D55435E92}" name="Column2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C7A71861-9D24-4FA9-B8FC-326C3FFA52DB}" name="Column3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{63FE6F14-DD96-4DE8-A5A0-F67049917C7C}" name="Column4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{689B20CF-31F9-45D1-AF46-B3410C2BA3BA}" name="Column5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{74B22867-5AD1-460F-83ED-2B5E3CED7CD1}" name="Column6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{FCAE6B90-7457-4B6D-848A-F4A839AE2CC5}" name="Column7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{6B708FA3-BDF6-4D80-B3F4-FDB36D40DB1B}" name="Column8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{1F291DB2-7D01-4DAA-9627-CEB17A9302FD}" name="Column9" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED2AD06-4778-48AF-9C91-79CBEC43A03B}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.75">
@@ -599,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -612,81 +703,56 @@
         <v>1000</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
-        <v>120</v>
-      </c>
-      <c r="C4" s="4">
         <v>10</v>
       </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4">
-        <v>1200</v>
+        <v>30000</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4">
-        <f>15*50</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="4">
-        <v>30000</v>
+        <f>SUM(D4,D3)</f>
+        <v>31000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>800</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUM(D3,D5,D6,D4,D7)</f>
-        <v>33750</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -717,24 +783,6 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,4 +791,209 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477584B1-B372-48D6-8ACF-2DD97C3D2270}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="9" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12">
+        <v>120</v>
+      </c>
+      <c r="C3" s="12">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12">
+        <v>40</v>
+      </c>
+      <c r="C4" s="12">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12">
+        <v>800</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(D3,D4)</f>
+        <v>2000</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81CAB2D-F5CC-48BF-AF79-7865D3410078}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>